--- a/1504/DriveBase custom/Material list  parts/Material list.xlsx
+++ b/1504/DriveBase custom/Material list  parts/Material list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1504\DriveBase custom\Material list  parts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff1\Documents\GitHub\CAD2018Preseason\Main\Parts\1504\DriveBase custom\Material list  parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -62,15 +62,9 @@
     <t>$150-250</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>27.5in</t>
   </si>
   <si>
-    <t>plane or black</t>
-  </si>
-  <si>
     <t>8020_20mm_20mm</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>1/4"-20 X 5/8"</t>
   </si>
   <si>
-    <t>Hex Drive Black Spcket Screw</t>
-  </si>
-  <si>
     <t>https://www.fastenal.com/products/details/1124050?r=~%7Ccategoryl1:%22600000%20Fasteners%22%7C~%20~%7Ccategoryl2:%22600039%20Sockets%22%7C~%20~%7Ccategoryl3:%22600043%20Button%20Socket%20Cap%20Screws%22%7C~</t>
   </si>
   <si>
@@ -110,18 +101,12 @@
     <t>$0.51 per in or $0.76 per in</t>
   </si>
   <si>
-    <t>$0.91 per in or$1.16 per in</t>
-  </si>
-  <si>
     <t>CIM Moter</t>
   </si>
   <si>
     <t>--------</t>
   </si>
   <si>
-    <t>andymark or vex</t>
-  </si>
-  <si>
     <t>http://www.andymark.com/CIM-Motor-p/am-0255.htm</t>
   </si>
   <si>
@@ -188,17 +173,39 @@
     <t xml:space="preserve">buy 2 extras  </t>
   </si>
   <si>
-    <t xml:space="preserve"> buy 2 extras </t>
+    <t>Hex Drive Black Socket Screw</t>
+  </si>
+  <si>
+    <t>$0.91 per in or $1.16 per in</t>
+  </si>
+  <si>
+    <t>This is for  two robots.  If you are only buying one, the dimensions are 30inX26in</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>plain=C32 or black=C32</t>
+  </si>
+  <si>
+    <t>Plain=C29 or black=C30</t>
+  </si>
+  <si>
+    <t>andymark=C38 or vex= C38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total = </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,20 +234,75 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -250,7 +312,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -261,31 +323,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,23 +686,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A578CA-FD1B-461C-8172-01EB951502F9}">
-  <dimension ref="A2:G42"/>
+  <dimension ref="A2:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="6" max="6" width="23.375" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -629,250 +711,338 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4">
+        <v>150</v>
+      </c>
+      <c r="I4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6">
+        <f>0.91*2</f>
+        <v>1.82</v>
+      </c>
+      <c r="I6">
+        <f>1.16*2</f>
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G7" s="11"/>
+      <c r="H7">
+        <f>0.51*2</f>
+        <v>1.02</v>
+      </c>
+      <c r="I7">
+        <f>0.79*2</f>
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="11" t="str">
+        <f>C35</f>
+        <v>https://www.fastenal.com/products/details/1124050?r=~%7Ccategoryl1:%22600000%20Fasteners%22%7C~%20~%7Ccategoryl2:%22600039%20Sockets%22%7C~%20~%7Ccategoryl3:%22600043%20Button%20Socket%20Cap%20Screws%22%7C~</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="11">
+        <v>24</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8">
+        <f>21.09</f>
+        <v>21.09</v>
+      </c>
+      <c r="I8">
+        <f>21.09</f>
+        <v>21.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="11">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9">
+        <f>28*4</f>
+        <v>112</v>
+      </c>
+      <c r="I9">
+        <f>28*4</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="13" t="str">
+        <f>C42</f>
+        <v>https://www.vexrobotics.com/vexpro/motion/mecanum-wheels.html</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="11">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="F10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10">
+        <f>39.99*4</f>
+        <v>159.96</v>
+      </c>
+      <c r="I10">
+        <f>39.99*4</f>
+        <v>159.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="11">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="F11" s="9"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="11">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="F12" s="20">
+        <v>54.97</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12">
+        <v>54.97</v>
+      </c>
+      <c r="I12">
+        <v>55.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="D13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="11">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <f>0.79*22</f>
+        <v>17.380000000000003</v>
+      </c>
+      <c r="I13">
+        <f>0.79*22</f>
+        <v>17.380000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="E14" s="11">
         <v>20</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="G14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="2">
-        <v>20</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f>0.33*22</f>
+        <v>7.2600000000000007</v>
+      </c>
+      <c r="I14">
+        <f>0.33*22</f>
+        <v>7.2600000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
       <c r="B15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f>H4+H6+H7+H8+H9+H10+H12+H13+H14</f>
+        <v>525.5</v>
+      </c>
+      <c r="I15">
+        <f>I4+I6+I7+I8+I9+I10+I12+I13+I14</f>
+        <v>627.56000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
+      <c r="C16" s="19"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -967,8 +1137,8 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
-        <v>17</v>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -977,7 +1147,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -986,7 +1156,7 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -995,7 +1165,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1018,7 +1188,7 @@
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1040,25 +1210,26 @@
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>36</v>
+      <c r="C42" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
@@ -1069,8 +1240,10 @@
     <hyperlink ref="C4" r:id="rId1" display="https://www.myalro.com/SearchResultsC.aspx?PT=Steel&amp;SelGridPt=0149&amp;SelGrade=6061&amp;SelShape=S&amp;DimA=.125&amp;DimB=-2&amp;DimC=-2&amp;len=-1&amp;comp=ALUMINUM" xr:uid="{7AF77F59-9F5C-4BF2-A28C-6B8914EA7818}"/>
     <hyperlink ref="C35" r:id="rId2" xr:uid="{1038EA44-1C1E-4578-8AC0-F5E95403379F}"/>
     <hyperlink ref="C38" r:id="rId3" xr:uid="{D71971BB-FA60-4A5A-A0F5-B75FC5F07AE2}"/>
+    <hyperlink ref="C29" r:id="rId4" xr:uid="{AE679387-7C0C-43E3-A61B-AB73CE088C6E}"/>
+    <hyperlink ref="C42" r:id="rId5" xr:uid="{B00A709D-30D3-4D8C-9000-6E2D9372C068}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/1504/DriveBase custom/Material list  parts/Material list.xlsx
+++ b/1504/DriveBase custom/Material list  parts/Material list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1504\DriveBase custom\Material list  parts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff1\Documents\GitHub\CAD2018\1504\DriveBase custom\Material list  parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="7965" xr2:uid="{964785F9-F062-4C11-AADF-FB3552A4B781}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12210" xr2:uid="{964785F9-F062-4C11-AADF-FB3552A4B781}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -62,15 +62,9 @@
     <t>$150-250</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>27.5in</t>
   </si>
   <si>
-    <t>plane or black</t>
-  </si>
-  <si>
     <t>8020_20mm_20mm</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>1/4"-20 X 5/8"</t>
   </si>
   <si>
-    <t>Hex Drive Black Spcket Screw</t>
-  </si>
-  <si>
     <t>https://www.fastenal.com/products/details/1124050?r=~%7Ccategoryl1:%22600000%20Fasteners%22%7C~%20~%7Ccategoryl2:%22600039%20Sockets%22%7C~%20~%7Ccategoryl3:%22600043%20Button%20Socket%20Cap%20Screws%22%7C~</t>
   </si>
   <si>
@@ -110,18 +101,12 @@
     <t>$0.51 per in or $0.76 per in</t>
   </si>
   <si>
-    <t>$0.91 per in or$1.16 per in</t>
-  </si>
-  <si>
     <t>CIM Moter</t>
   </si>
   <si>
     <t>--------</t>
   </si>
   <si>
-    <t>andymark or vex</t>
-  </si>
-  <si>
     <t>http://www.andymark.com/CIM-Motor-p/am-0255.htm</t>
   </si>
   <si>
@@ -188,17 +173,39 @@
     <t xml:space="preserve">buy 2 extras  </t>
   </si>
   <si>
-    <t xml:space="preserve"> buy 2 extras </t>
+    <t>Hex Drive Black Socket Screw</t>
+  </si>
+  <si>
+    <t>$0.91 per in or $1.16 per in</t>
+  </si>
+  <si>
+    <t>This is for  two robots.  If you are only buying one, the dimensions are 30inX26in</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>plain=C32 or black=C32</t>
+  </si>
+  <si>
+    <t>Plain=C29 or black=C30</t>
+  </si>
+  <si>
+    <t>andymark=C38 or vex= C38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total = </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,20 +234,75 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -250,7 +312,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -261,31 +323,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,23 +686,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A578CA-FD1B-461C-8172-01EB951502F9}">
-  <dimension ref="A2:G42"/>
+  <dimension ref="A2:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="6" max="6" width="23.375" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -629,250 +711,338 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4">
+        <v>150</v>
+      </c>
+      <c r="I4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6">
+        <f>0.91*2</f>
+        <v>1.82</v>
+      </c>
+      <c r="I6">
+        <f>1.16*2</f>
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G7" s="9"/>
+      <c r="H7">
+        <f>0.51*2</f>
+        <v>1.02</v>
+      </c>
+      <c r="I7">
+        <f>0.79*2</f>
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9" t="str">
+        <f>C35</f>
+        <v>https://www.fastenal.com/products/details/1124050?r=~%7Ccategoryl1:%22600000%20Fasteners%22%7C~%20~%7Ccategoryl2:%22600039%20Sockets%22%7C~%20~%7Ccategoryl3:%22600043%20Button%20Socket%20Cap%20Screws%22%7C~</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="9">
+        <v>24</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8">
+        <f>21.09</f>
+        <v>21.09</v>
+      </c>
+      <c r="I8">
+        <f>21.09</f>
+        <v>21.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9">
+        <f>28*4</f>
+        <v>112</v>
+      </c>
+      <c r="I9">
+        <f>28*4</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="16" t="str">
+        <f>C42</f>
+        <v>https://www.vexrobotics.com/vexpro/motion/mecanum-wheels.html</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="9">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="F10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10">
+        <f>39.99*4</f>
+        <v>159.96</v>
+      </c>
+      <c r="I10">
+        <f>39.99*4</f>
+        <v>159.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="F11" s="15"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="9">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="F12" s="14">
+        <v>54.97</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12">
+        <v>54.97</v>
+      </c>
+      <c r="I12">
+        <v>55.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="D13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="9">
+        <v>20</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <f>0.79*22</f>
+        <v>17.380000000000003</v>
+      </c>
+      <c r="I13">
+        <f>0.79*22</f>
+        <v>17.380000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="E14" s="9">
         <v>20</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="G14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="2">
-        <v>20</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f>0.33*22</f>
+        <v>7.2600000000000007</v>
+      </c>
+      <c r="I14">
+        <f>0.33*22</f>
+        <v>7.2600000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
       <c r="B15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f>H4+H6+H7+H8+H9+H10+H12+H13+H14</f>
+        <v>525.5</v>
+      </c>
+      <c r="I15">
+        <f>I4+I6+I7+I8+I9+I10+I12+I13+I14</f>
+        <v>627.56000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
+      <c r="C16" s="13"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -967,8 +1137,8 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
-        <v>17</v>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -977,7 +1147,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -986,7 +1156,7 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -995,7 +1165,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1018,7 +1188,7 @@
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1040,25 +1210,26 @@
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>36</v>
+      <c r="C42" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
@@ -1069,8 +1240,10 @@
     <hyperlink ref="C4" r:id="rId1" display="https://www.myalro.com/SearchResultsC.aspx?PT=Steel&amp;SelGridPt=0149&amp;SelGrade=6061&amp;SelShape=S&amp;DimA=.125&amp;DimB=-2&amp;DimC=-2&amp;len=-1&amp;comp=ALUMINUM" xr:uid="{7AF77F59-9F5C-4BF2-A28C-6B8914EA7818}"/>
     <hyperlink ref="C35" r:id="rId2" xr:uid="{1038EA44-1C1E-4578-8AC0-F5E95403379F}"/>
     <hyperlink ref="C38" r:id="rId3" xr:uid="{D71971BB-FA60-4A5A-A0F5-B75FC5F07AE2}"/>
+    <hyperlink ref="C29" r:id="rId4" xr:uid="{AE679387-7C0C-43E3-A61B-AB73CE088C6E}"/>
+    <hyperlink ref="C42" r:id="rId5" xr:uid="{B00A709D-30D3-4D8C-9000-6E2D9372C068}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/1504/DriveBase custom/Material list  parts/Material list.xlsx
+++ b/1504/DriveBase custom/Material list  parts/Material list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12210" xr2:uid="{964785F9-F062-4C11-AADF-FB3552A4B781}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="7965" xr2:uid="{964785F9-F062-4C11-AADF-FB3552A4B781}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -56,12 +56,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>Aluminum .125 6061-T6 ALUM SHT MISC</t>
-  </si>
-  <si>
-    <t>$150-250</t>
-  </si>
-  <si>
     <t>27.5in</t>
   </si>
   <si>
@@ -195,6 +189,9 @@
   </si>
   <si>
     <t xml:space="preserve">total = </t>
+  </si>
+  <si>
+    <t>Aluminum .125 5052-H32 ALUM SHT MISC</t>
   </si>
 </sst>
 </file>
@@ -312,7 +309,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -335,7 +332,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -368,6 +364,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,7 +689,7 @@
   <dimension ref="A2:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,69 +731,69 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="15">
+      <c r="D4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="14">
         <v>1</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>51</v>
+      <c r="F4" s="21">
+        <v>192.95</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="H4">
-        <v>150</v>
+        <v>192.95</v>
       </c>
       <c r="I4">
-        <v>250</v>
+        <v>192.95</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="19"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8">
         <v>2</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="9"/>
+      <c r="F6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="8"/>
       <c r="H6">
         <f>0.91*2</f>
         <v>1.82</v>
@@ -805,24 +805,24 @@
     </row>
     <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="8">
         <v>2</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="9"/>
+      <c r="F7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="8"/>
       <c r="H7">
         <f>0.51*2</f>
         <v>1.02</v>
@@ -834,25 +834,25 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="9" t="str">
+        <v>47</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="str">
         <f>C35</f>
         <v>https://www.fastenal.com/products/details/1124050?r=~%7Ccategoryl1:%22600000%20Fasteners%22%7C~%20~%7Ccategoryl2:%22600039%20Sockets%22%7C~%20~%7Ccategoryl3:%22600043%20Button%20Socket%20Cap%20Screws%22%7C~</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8">
         <v>24</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="9"/>
+      <c r="F8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="8"/>
       <c r="H8">
         <f>21.09</f>
         <v>21.09</v>
@@ -864,24 +864,24 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="9">
+        <v>53</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="8">
         <v>4</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="9"/>
+      <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="8"/>
       <c r="H9">
         <f>28*4</f>
         <v>112</v>
@@ -893,25 +893,25 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="16" t="str">
+        <v>31</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="15" t="str">
         <f>C42</f>
         <v>https://www.vexrobotics.com/vexpro/motion/mecanum-wheels.html</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="8">
         <v>2</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="9"/>
+      <c r="F10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="8"/>
       <c r="H10">
         <f>39.99*4</f>
         <v>159.96</v>
@@ -923,37 +923,37 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="9">
+        <v>32</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="8">
         <v>2</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="9"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="B12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8">
         <v>4</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>54.97</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="8"/>
       <c r="H12">
         <v>54.97</v>
       </c>
@@ -963,25 +963,25 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="E13" s="8">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="9">
-        <v>20</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>48</v>
+      <c r="G13" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="H13">
         <f>0.79*22</f>
@@ -994,25 +994,25 @@
     </row>
     <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="8">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="9">
-        <v>20</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="H14">
         <f>0.33*22</f>
@@ -1024,25 +1024,25 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15">
         <f>H4+H6+H7+H8+H9+H10+H12+H13+H14</f>
-        <v>525.5</v>
+        <v>568.45000000000005</v>
       </c>
       <c r="I15">
         <f>I4+I6+I7+I8+I9+I10+I12+I13+I14</f>
-        <v>627.56000000000006</v>
+        <v>570.51</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="12"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1210,17 +1210,17 @@
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="13" t="s">
-        <v>31</v>
+      <c r="C42" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/1504/DriveBase custom/Material list  parts/Material list.xlsx
+++ b/1504/DriveBase custom/Material list  parts/Material list.xlsx
@@ -348,6 +348,7 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -366,7 +367,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -689,7 +689,7 @@
   <dimension ref="A2:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,22 +738,22 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="15">
         <v>1</v>
       </c>
       <c r="F4" s="21">
         <v>192.95</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="18" t="s">
         <v>49</v>
       </c>
       <c r="H4">
@@ -767,12 +767,12 @@
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="18"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -795,12 +795,12 @@
       </c>
       <c r="G6" s="8"/>
       <c r="H6">
-        <f>0.91*2</f>
-        <v>1.82</v>
+        <f>0.91*2*27.5</f>
+        <v>50.050000000000004</v>
       </c>
       <c r="I6">
-        <f>1.16*2</f>
-        <v>2.3199999999999998</v>
+        <f>1.16*2*27.5</f>
+        <v>63.8</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -824,12 +824,12 @@
       </c>
       <c r="G7" s="8"/>
       <c r="H7">
-        <f>0.51*2</f>
-        <v>1.02</v>
+        <f>0.51*2*27.5</f>
+        <v>28.05</v>
       </c>
       <c r="I7">
-        <f>0.79*2</f>
-        <v>1.58</v>
+        <f>0.79*2*27.5</f>
+        <v>43.45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -895,20 +895,20 @@
       <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="15" t="str">
+      <c r="C10" s="16" t="str">
         <f>C42</f>
         <v>https://www.vexrobotics.com/vexpro/motion/mecanum-wheels.html</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="8">
         <v>2</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="8"/>
@@ -925,13 +925,13 @@
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="8">
         <v>2</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1024,7 +1024,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
@@ -1033,11 +1033,11 @@
       <c r="G15" s="1"/>
       <c r="H15">
         <f>H4+H6+H7+H8+H9+H10+H12+H13+H14</f>
-        <v>568.45000000000005</v>
+        <v>643.71</v>
       </c>
       <c r="I15">
         <f>I4+I6+I7+I8+I9+I10+I12+I13+I14</f>
-        <v>570.51</v>
+        <v>673.86</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">

--- a/1504/DriveBase custom/Material list  parts/Material list.xlsx
+++ b/1504/DriveBase custom/Material list  parts/Material list.xlsx
@@ -53,9 +53,6 @@
     <t>30inX45in</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>27.5in</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>Aluminum .125 5052-H32 ALUM SHT MISC</t>
+  </si>
+  <si>
+    <t>https://www.myalro.com/SearchResultsC.aspx?PT=Steel&amp;SelGridPt=0146&amp;SelGrade=5052&amp;SelShape=S&amp;DimA=.125&amp;DimB=-2&amp;DimC=-2&amp;len=-1&amp;comp=ALUMINUM</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
   <dimension ref="A2:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +731,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -742,10 +742,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>192.95</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>192.95</v>
@@ -776,22 +776,22 @@
     </row>
     <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="8">
         <v>2</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6">
@@ -805,22 +805,22 @@
     </row>
     <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="8">
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7">
@@ -834,23 +834,23 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="8" t="str">
         <f>C35</f>
         <v>https://www.fastenal.com/products/details/1124050?r=~%7Ccategoryl1:%22600000%20Fasteners%22%7C~%20~%7Ccategoryl2:%22600039%20Sockets%22%7C~%20~%7Ccategoryl3:%22600043%20Button%20Socket%20Cap%20Screws%22%7C~</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="8">
         <v>24</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8">
@@ -864,22 +864,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="8">
         <v>4</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9">
@@ -893,23 +893,23 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="16" t="str">
         <f>C42</f>
         <v>https://www.vexrobotics.com/vexpro/motion/mecanum-wheels.html</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="8">
         <v>2</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10">
@@ -923,7 +923,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -936,16 +936,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="D12" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="8">
         <v>4</v>
@@ -963,25 +963,25 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="E13" s="8">
         <v>20</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13">
         <f>0.79*22</f>
@@ -994,25 +994,25 @@
     </row>
     <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="C14" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="8">
         <v>20</v>
       </c>
       <c r="F14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="H14">
         <f>0.33*22</f>
@@ -1028,7 +1028,7 @@
       <c r="B15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15">
@@ -1138,7 +1138,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1210,17 +1210,17 @@
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1237,7 @@
     <mergeCell ref="F4:F5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="https://www.myalro.com/SearchResultsC.aspx?PT=Steel&amp;SelGridPt=0149&amp;SelGrade=6061&amp;SelShape=S&amp;DimA=.125&amp;DimB=-2&amp;DimC=-2&amp;len=-1&amp;comp=ALUMINUM" xr:uid="{7AF77F59-9F5C-4BF2-A28C-6B8914EA7818}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{7AF77F59-9F5C-4BF2-A28C-6B8914EA7818}"/>
     <hyperlink ref="C35" r:id="rId2" xr:uid="{1038EA44-1C1E-4578-8AC0-F5E95403379F}"/>
     <hyperlink ref="C38" r:id="rId3" xr:uid="{D71971BB-FA60-4A5A-A0F5-B75FC5F07AE2}"/>
     <hyperlink ref="C29" r:id="rId4" xr:uid="{AE679387-7C0C-43E3-A61B-AB73CE088C6E}"/>

--- a/1504/DriveBase custom/Material list  parts/Material list.xlsx
+++ b/1504/DriveBase custom/Material list  parts/Material list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -74,9 +74,6 @@
     <t>https://8020.net/shop/40-4040-lite.html</t>
   </si>
   <si>
-    <t>1/4"-20 X 5/8"</t>
-  </si>
-  <si>
     <t>https://www.fastenal.com/products/details/1124050?r=~%7Ccategoryl1:%22600000%20Fasteners%22%7C~%20~%7Ccategoryl2:%22600039%20Sockets%22%7C~%20~%7Ccategoryl3:%22600043%20Button%20Socket%20Cap%20Screws%22%7C~</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>Steel</t>
   </si>
   <si>
-    <t>$21.09/PKg of 100</t>
-  </si>
-  <si>
     <t>$0.51 per in or $0.76 per in</t>
   </si>
   <si>
@@ -192,6 +186,15 @@
   </si>
   <si>
     <t>https://www.myalro.com/SearchResultsC.aspx?PT=Steel&amp;SelGridPt=0146&amp;SelGrade=5052&amp;SelShape=S&amp;DimA=.125&amp;DimB=-2&amp;DimC=-2&amp;len=-1&amp;comp=ALUMINUM</t>
+  </si>
+  <si>
+    <t>https://www.fastenal.com/products/details/1124040?r=~%7Ccategoryl1:%22600000%20Fasteners%22%7C~%20~%7Ccategoryl2:%22600039%20Sockets%22%7C~%20~%7Ccategoryl3:%22600043%20Button%20Socket%20Cap%20Screws%22%7C~</t>
+  </si>
+  <si>
+    <t>#10-32 x 1/2"</t>
+  </si>
+  <si>
+    <t>$19.83/PKg of 100</t>
   </si>
 </sst>
 </file>
@@ -309,7 +312,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -352,6 +355,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -370,6 +379,7 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -689,7 +699,7 @@
   <dimension ref="A2:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,30 +741,30 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="15">
+      <c r="C4" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="17">
         <v>1</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="23">
         <v>192.95</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>48</v>
+      <c r="G4" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="H4">
         <v>192.95</v>
@@ -767,12 +777,12 @@
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -782,16 +792,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="8">
         <v>2</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6">
@@ -811,16 +821,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="8">
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7">
@@ -834,52 +844,51 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="8" t="str">
-        <f>C35</f>
-        <v>https://www.fastenal.com/products/details/1124050?r=~%7Ccategoryl1:%22600000%20Fasteners%22%7C~%20~%7Ccategoryl2:%22600039%20Sockets%22%7C~%20~%7Ccategoryl3:%22600043%20Button%20Socket%20Cap%20Screws%22%7C~</v>
+        <v>44</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="8">
         <v>24</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8">
-        <f>21.09</f>
-        <v>21.09</v>
+        <f>19.83</f>
+        <v>19.829999999999998</v>
       </c>
       <c r="I8">
-        <f>21.09</f>
-        <v>21.09</v>
+        <f>19.83</f>
+        <v>19.829999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" s="8">
         <v>4</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9">
@@ -893,23 +902,23 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="16" t="str">
+        <v>28</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="18" t="str">
         <f>C42</f>
         <v>https://www.vexrobotics.com/vexpro/motion/mecanum-wheels.html</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>26</v>
+      <c r="D10" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="8">
         <v>2</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>32</v>
+      <c r="F10" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10">
@@ -923,29 +932,29 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="8">
         <v>2</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="8">
         <v>4</v>
@@ -963,25 +972,25 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="E13" s="8">
         <v>20</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H13">
         <f>0.79*22</f>
@@ -994,25 +1003,25 @@
     </row>
     <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="8">
         <v>20</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14">
         <f>0.33*22</f>
@@ -1028,16 +1037,16 @@
       <c r="B15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15">
         <f>H4+H6+H7+H8+H9+H10+H12+H13+H14</f>
-        <v>643.71</v>
+        <v>642.45000000000005</v>
       </c>
       <c r="I15">
         <f>I4+I6+I7+I8+I9+I10+I12+I13+I14</f>
-        <v>673.86</v>
+        <v>672.6</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1188,7 +1197,7 @@
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1210,17 +1219,17 @@
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1242,8 +1251,10 @@
     <hyperlink ref="C38" r:id="rId3" xr:uid="{D71971BB-FA60-4A5A-A0F5-B75FC5F07AE2}"/>
     <hyperlink ref="C29" r:id="rId4" xr:uid="{AE679387-7C0C-43E3-A61B-AB73CE088C6E}"/>
     <hyperlink ref="C42" r:id="rId5" xr:uid="{B00A709D-30D3-4D8C-9000-6E2D9372C068}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{FAE1A0B8-537A-4B7B-A8E3-F4B7E564CE28}"/>
+    <hyperlink ref="C14" r:id="rId7" xr:uid="{3DB6ED2B-1775-49FA-B141-9735F58B1835}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>